--- a/file/doc/出库模板_test01.xlsx
+++ b/file/doc/出库模板_test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="出仓导入表格" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>CLP:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PCS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,15 +53,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123QWEQWE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1231QWE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1231QWE1</t>
+    <t>ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCL00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCL00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCL00011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCL00011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,25 +433,25 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="7" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="7" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -455,7 +459,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -463,56 +467,68 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>123123</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1231231</v>
-      </c>
-      <c r="C3" s="1">
-        <v>123123</v>
+    <row r="3" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>90</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -521,7 +537,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>

--- a/file/doc/出库模板_test01.xlsx
+++ b/file/doc/出库模板_test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="出仓导入表格" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>CLP:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CD2019101908</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +66,14 @@
   </si>
   <si>
     <t>EXCL00011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCL00012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD2019111910</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,25 +437,25 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="7" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -459,7 +463,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -467,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -482,18 +486,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -505,18 +509,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -528,7 +532,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -537,7 +541,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
